--- a/docs/数据检查和修复.xlsx
+++ b/docs/数据检查和修复.xlsx
@@ -14,8 +14,12 @@
   <sheets>
     <sheet name="股票数据问题" sheetId="1" r:id="rId1"/>
     <sheet name="股票数据修复" sheetId="2" r:id="rId2"/>
-    <sheet name="因子问题及修复" sheetId="3" r:id="rId3"/>
+    <sheet name="股指数据修复" sheetId="4" r:id="rId3"/>
+    <sheet name="因子问题及修复" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">股票数据修复!$A$1:$K$15</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="221">
   <si>
     <t>问题编号</t>
   </si>
@@ -564,10 +568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扫描是否遗漏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否有补齐时未清零的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,10 +601,6 @@
   </si>
   <si>
     <t>20230105-finley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -714,10 +710,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NotClearedAfterCompletionFixer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -782,10 +774,6 @@
   </si>
   <si>
     <t>20230228-finley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TenGradeFiveGradeDataValidator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -924,6 +912,7 @@
         <sz val="12"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>原始因子</t>
@@ -975,6 +964,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>022年之后没有总委比数据</t>
@@ -1054,6 +1044,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-20230306</t>
@@ -1085,6 +1076,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>inley-20230228</t>
@@ -1209,10 +1201,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>更新收益率，下一个tick的open计算代替close</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>FCT_02_004_5_GRADE_COMMISSION_RATIO
 FCT_02_007_SPREAD
 FCT_02_024_RISING_LIMIT_STOCK_PROPORTION
@@ -1226,15 +1214,96 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>BidOrAskMissingDataFixer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据段兄提供的新数据源插值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新收益率，下一个tick的open计算代替close
+修复部分缺失股指数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>BidOrAskMissingDataValidator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BidOrAskMissingDataFixer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据段兄提供的新数据源插值</t>
+    <t>20230309-finley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中途缺少数据的原因可能是因为涨跌停，这种情况下对5档10档
+委比因子计算没有影响，无需修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委买委卖修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230410-finley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委买委卖修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BidAskExchangeFixer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230410-finley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230410-1-finley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还原20230309-finley的修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230329-future-finley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutureDataMissingValidator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutrueDataMissingFixer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|    17071 |      0 |
+|      149 |      1 |</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前只有2017-05-04一天的修复数据
+每次重新生成估值文件都要执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TenGradeFiveGradeDataValidator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultDataValidator
+默认所有数据都要修复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1296,23 +1365,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2155,11 +2228,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2197,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
@@ -2226,7 +2299,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="114">
@@ -2243,7 +2316,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="99.75">
@@ -2257,10 +2330,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="42.75">
@@ -2277,7 +2350,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -2295,7 +2368,7 @@
         <v>32</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -2319,7 +2392,7 @@
         <v>41</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="249.95" customHeight="1">
@@ -2502,7 +2575,7 @@
         <v>72</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I16" t="s">
         <v>74</v>
@@ -2519,16 +2592,16 @@
         <v>600369</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I17" t="s">
         <v>73</v>
@@ -2554,7 +2627,7 @@
         <v>68</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I18" t="s">
         <v>70</v>
@@ -2583,7 +2656,7 @@
         <v>67</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I19" t="s">
         <v>69</v>
@@ -2597,7 +2670,7 @@
         <v>44714</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>64</v>
@@ -2609,7 +2682,7 @@
         <v>66</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I20" t="s">
         <v>65</v>
@@ -2626,13 +2699,16 @@
         <v>603025</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I21" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2643,16 +2719,16 @@
         <v>44411</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="80.099999999999994" customHeight="1">
@@ -2663,19 +2739,19 @@
         <v>44251</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I23" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I23" t="s">
-        <v>149</v>
-      </c>
       <c r="J23" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2683,10 +2759,21 @@
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I24" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2699,10 +2786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2712,11 +2799,11 @@
     <col min="3" max="3" width="45.5" customWidth="1"/>
     <col min="4" max="4" width="31.875" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="44.375" customWidth="1"/>
-    <col min="9" max="9" width="35.625" customWidth="1"/>
-    <col min="10" max="10" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="32.125" customWidth="1"/>
+    <col min="8" max="8" width="35.625" customWidth="1"/>
+    <col min="9" max="9" width="6.875" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
     <col min="11" max="11" width="49" customWidth="1"/>
     <col min="12" max="12" width="37.75" customWidth="1"/>
   </cols>
@@ -2729,31 +2816,31 @@
         <v>76</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" ht="28.5">
@@ -2761,89 +2848,80 @@
         <v>77</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="12">
+        <v>1108469</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="12">
-        <v>1108469</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>94</v>
+      <c r="I2" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="12" customFormat="1" ht="28.5">
       <c r="A3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>84</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="12">
+        <v>118</v>
+      </c>
+      <c r="F3" s="12">
         <v>1108469</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>95</v>
+      <c r="G3" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="8" customFormat="1" ht="42.75">
       <c r="A4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="F4" s="8">
         <v>1110728</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="42.75">
@@ -2851,31 +2929,28 @@
         <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
         <v>72</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5">
+        <v>97</v>
+      </c>
+      <c r="F5">
         <v>1109946</v>
       </c>
-      <c r="H5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" t="s">
-        <v>95</v>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="42.75">
@@ -2883,28 +2958,25 @@
         <v>73</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
         <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6">
+        <v>103</v>
+      </c>
+      <c r="F6">
         <v>1109946</v>
       </c>
-      <c r="H6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="12" customFormat="1" ht="28.5">
@@ -2912,31 +2984,28 @@
         <v>70</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="12">
+        <v>123</v>
+      </c>
+      <c r="F7" s="12">
         <v>1108469</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>93</v>
+      <c r="G7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="42.75">
@@ -2944,128 +3013,147 @@
         <v>69</v>
       </c>
       <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8">
+        <v>1108469</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
         <v>110</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8">
-        <v>1108469</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="12" customFormat="1" ht="42.75">
       <c r="A9" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="12">
+        <v>124</v>
+      </c>
+      <c r="F9" s="12">
         <v>1108469</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>93</v>
+      <c r="G9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="57">
       <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="12" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="12">
+        <v>199</v>
+      </c>
+      <c r="F11" s="12">
         <v>1108392</v>
       </c>
-      <c r="I11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="71.25">
+      <c r="H11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="99.75">
       <c r="A12" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12">
+        <v>140</v>
+      </c>
+      <c r="F12">
         <v>1109937</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>199</v>
+      <c r="G12" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.5">
+      <c r="A14" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14">
+        <v>1108392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3076,10 +3164,102 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="28.75" customWidth="1"/>
+    <col min="3" max="3" width="37.375" customWidth="1"/>
+    <col min="4" max="4" width="30.125" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="41.25" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.5">
+      <c r="A2" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="12">
+        <v>17220</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3094,135 +3274,135 @@
   <sheetData>
     <row r="1" spans="1:8" s="14" customFormat="1">
       <c r="A1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>157</v>
-      </c>
       <c r="H1" s="14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1" ht="28.5">
       <c r="A2" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="17" customFormat="1" ht="28.5">
       <c r="A3" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="17" customFormat="1" ht="99.75">
       <c r="A4" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="17" customFormat="1" ht="42.75">
       <c r="A5" s="17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D5" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>194</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="17" customFormat="1" ht="142.5">
       <c r="A6" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.5">
       <c r="A7" s="16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="142.5">
       <c r="A8" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="D8" s="18" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/docs/数据检查和修复.xlsx
+++ b/docs/数据检查和修复.xlsx
@@ -3141,7 +3141,7 @@
       <c r="C14" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" t="s">
         <v>208</v>
       </c>
       <c r="F14">
